--- a/trunk/PhD/Test Audio.xlsx
+++ b/trunk/PhD/Test Audio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21015" windowHeight="9435" tabRatio="614" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21015" windowHeight="9435" tabRatio="614" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Whole Tunes" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,11 @@
     <sheet name="Sheet5" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="994">
   <si>
     <t>Ambrose Maloneys</t>
   </si>
@@ -2919,13 +2918,103 @@
   </si>
   <si>
     <t>Average Distances</t>
+  </si>
+  <si>
+    <t>The Concert reel, The Salute to Baltimore</t>
+  </si>
+  <si>
+    <t>Touch me if u dare</t>
+  </si>
+  <si>
+    <t>McKenna's 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Billy Brockas, The Green Mountail</t>
+  </si>
+  <si>
+    <t>Happy to Meet sorry to Part, Jackson's Bottle of Brandy</t>
+  </si>
+  <si>
+    <t>The Cornerhouse, The Boys of Portaferry</t>
+  </si>
+  <si>
+    <t>Travers Jig, Paddy in London</t>
+  </si>
+  <si>
+    <t>Dublin Lassies, The 5 Mile Chase</t>
+  </si>
+  <si>
+    <t>Connie O ' Connolls 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Cooley's set</t>
+  </si>
+  <si>
+    <t>Down the broom, the gatehouse maid</t>
+  </si>
+  <si>
+    <t>Galway Rambler London Lassies</t>
+  </si>
+  <si>
+    <t>Geese in the bog, Connaughtmans rambles</t>
+  </si>
+  <si>
+    <t>Green mountain, John Stensons #2</t>
+  </si>
+  <si>
+    <t>Humours of Ballyloughlan</t>
+  </si>
+  <si>
+    <t>Ms McGuinness George Whites and the Virginia</t>
+  </si>
+  <si>
+    <t>Strop the Razer, The Kilaval, Boys of the Town</t>
+  </si>
+  <si>
+    <t>The Copper Plates</t>
+  </si>
+  <si>
+    <t>The Cup of Tea, Upstairs in a tent</t>
+  </si>
+  <si>
+    <t>The Goosberry Bush, The Limestone Rock, the Humours of Loughrea</t>
+  </si>
+  <si>
+    <t>The Humours of Ballyconnell</t>
+  </si>
+  <si>
+    <t>The Skylark Rorring Mary</t>
+  </si>
+  <si>
+    <t>Tonres &amp; the Kilaval</t>
+  </si>
+  <si>
+    <t>The Wandering Minstral</t>
+  </si>
+  <si>
+    <t>Christy Barries, The Butlers of Glenavenue</t>
+  </si>
+  <si>
+    <t>Devaney's Goat, Tommy Peoples</t>
+  </si>
+  <si>
+    <t>Micho Russles, The Maids of Moncisco, the Green Groves of Erin</t>
+  </si>
+  <si>
+    <t>Scully Casey's, The Kilmovee</t>
+  </si>
+  <si>
+    <t>The Lillies in the Field, Tommy Peoples</t>
+  </si>
+  <si>
+    <t>The Lilting Banshee, The Mouse in the Cuboard, The Tenpennybit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2961,6 +3050,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3093,7 +3188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3113,12 +3208,6 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3145,6 +3234,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3662,24 +3769,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83798272"/>
-        <c:axId val="67362816"/>
+        <c:axId val="73645440"/>
+        <c:axId val="73655424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83798272"/>
+        <c:axId val="73645440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67362816"/>
+        <c:crossAx val="73655424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67362816"/>
+        <c:axId val="73655424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3794,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83798272"/>
+        <c:crossAx val="73645440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3700,7 +3807,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4028,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4042,155 +4149,155 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>33.914375</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>43.284669999999998</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>37.9</v>
+        <v>61.909840000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>45.853583999999998</v>
+        <v>42.551476000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>31.137484000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>34</v>
+        <v>44.317959999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>51.692222999999998</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>49.544623999999999</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>25.815102</v>
+        <v>58.306282000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4212,682 +4319,682 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>80.673490000000001</v>
+        <v>29.484604000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>76.289069999999995</v>
+        <v>49.85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>84.001000000000005</v>
+        <v>21.233333999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
-        <v>54.2</v>
+        <v>44.357390000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>43.266666000000001</v>
+        <v>32.528686999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>38.799999999999997</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>31.5</v>
+        <v>35.989024999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
-        <v>37.6</v>
+        <v>29.743492</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>37.573309999999999</v>
+        <v>80.673490000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>43.8</v>
+        <v>45.853583999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>38.5</v>
+        <v>28.688186999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>50.8</v>
+        <v>42.845576999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>42.551476000000001</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>52</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>40.1</v>
+        <v>37.573309999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>58.306282000000003</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>49.85</v>
+        <v>56.651904999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
-        <v>32.528686999999998</v>
+        <v>23.191020999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>28.688186999999999</v>
+        <v>46.153151999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>42.845576999999999</v>
+        <v>37.766620000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>37.766620000000003</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>78.2</v>
+        <v>31.137484000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>48.012745000000002</v>
+        <v>34.791224999999997</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>48.157733999999998</v>
+        <v>32.196326999999997</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>53.652766999999997</v>
+        <v>51.692222999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>40.708390000000001</v>
+        <v>48.012745000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>40.049999999999997</v>
+        <v>48.157733999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1">
-        <v>21.233333999999999</v>
+        <v>33.914375</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>46.153151999999999</v>
+        <v>49.544623999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>44.317959999999999</v>
+        <v>76.289069999999995</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1">
-        <v>34.791224999999997</v>
+        <v>43.284669999999998</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>29.484604000000001</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>29.743492</v>
+        <v>53.652766999999997</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>56.651904999999999</v>
+        <v>40.708390000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>23.191020999999999</v>
+        <v>42.888573000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>35.989024999999998</v>
+        <v>84.001000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>61.909840000000003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>44.357390000000002</v>
+        <v>43.266666000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>32.196326999999997</v>
+        <v>40.049999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>42.888573000000001</v>
+        <v>25.815102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4918,8 +5025,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E50">
-    <sortCondition ref="D1:D50"/>
+  <sortState ref="A1:E53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4930,26 +5037,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21:T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1">
       <c r="A2" s="4"/>
@@ -5063,34 +5170,34 @@
       <c r="A6" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>B3/B5</f>
         <v>0.2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f t="shared" ref="C6:G6" si="1">C3/C5</f>
         <v>0.02</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>951</v>
       </c>
     </row>
@@ -5098,34 +5205,34 @@
       <c r="A7" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>B4/B5</f>
         <v>0.8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f t="shared" ref="C7:G7" si="2">C4/C5</f>
         <v>0.98</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>953</v>
       </c>
     </row>
@@ -5133,45 +5240,45 @@
       <c r="A8" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>B6+B7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" ref="C8:G8" si="3">C6+C7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>945</v>
       </c>
       <c r="B12" s="4">
@@ -5229,26 +5336,26 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <f>'T1 &amp; T3'!B101</f>
         <v>7</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <f>'T1 &amp; T3'!C101</f>
         <v>82</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <f>'T2 &amp; T3'!B101</f>
         <v>7</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f>'T2 &amp; T3'!C101</f>
         <v>46</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="13">
         <v>5</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5256,38 +5363,38 @@
       <c r="A15" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <f>B12/B14</f>
         <v>0.11</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <f>C12/C14</f>
         <v>0.47</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <f>D12/D14</f>
         <v>0.93</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="13">
         <f>'T1 &amp; T3'!D101</f>
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <f>'T1 &amp; T3'!E101</f>
         <v>11</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f>'T2 &amp; T3'!D101</f>
         <v>0</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <f>'T2 &amp; T3'!E101</f>
         <v>47</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="13">
         <v>2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="13">
         <v>10</v>
       </c>
     </row>
@@ -5295,15 +5402,15 @@
       <c r="A16" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <f>B13/B14</f>
         <v>0.89</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <f>C13/C14</f>
         <v>0.53</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f>D13/D14</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5312,15 +5419,15 @@
       <c r="A17" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <f>B15+B16</f>
         <v>1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <f>C15+C16</f>
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <f>D15+D16</f>
         <v>1</v>
       </c>
@@ -9829,7 +9936,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9840,112 +9947,112 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>15.5</v>
+        <v>10.450317</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5.2104764000000001</v>
+        <v>8.8751700000000007</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>7.2250794999999997</v>
+        <v>13.877347</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>65.433359999999993</v>
+        <v>13.158504000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>11.192266999999999</v>
+        <v>8.6494560000000007</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>8.2041489999999992</v>
+        <v>11.322585</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -9954,148 +10061,148 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>14.767483</v>
+        <v>5.8830384999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>26.862970000000001</v>
+        <v>10.946168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>5.8830384999999996</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>10.286984</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E11">
-        <v>10.5</v>
+        <v>65.433359999999993</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>53.109546999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>7.3</v>
+        <v>19.727142000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>8.1060540000000003</v>
+        <v>9.0751705000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>9.3258279999999996</v>
+        <v>15.730475999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -10107,148 +10214,148 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>5.7049659999999998</v>
+        <v>8.1060540000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>10.450317</v>
+        <v>5.2104764000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>8.6494560000000007</v>
+        <v>9.5250109999999992</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>11.322585</v>
+        <v>9.3258279999999996</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>10.946168</v>
+        <v>41.393265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>19.727142000000001</v>
+        <v>6.1855330000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>9.0751705000000005</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>15.730475999999999</v>
+        <v>10.286984</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>9.5250109999999992</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -10260,41 +10367,41 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>6.1855330000000004</v>
+        <v>5.6249886</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>20.7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27">
-        <v>5.6249886</v>
+        <v>26.862970000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10316,163 +10423,163 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29">
-        <v>5.0479817000000002</v>
+        <v>5.7049659999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>15.797097000000001</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>5.2624034999999996</v>
+        <v>5.0479817000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>11.9</v>
+        <v>15.797097000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33">
-        <v>10.888889000000001</v>
+        <v>5.2624034999999996</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>15.761678</v>
+        <v>8.2041489999999992</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>8.2392289999999999</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>20.930724999999999</v>
+        <v>10.888889000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>38.353332999999999</v>
+        <v>15.761678</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -10481,194 +10588,194 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>8.0600450000000006</v>
+        <v>7.7513832999999996</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>4.7407937000000002</v>
+        <v>11.192266999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>8.7205670000000008</v>
+        <v>8.2392289999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>16.8</v>
+        <v>14.767483</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42">
-        <v>12.2</v>
+        <v>20.930724999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E43">
-        <v>8.8751700000000007</v>
+        <v>7.2250794999999997</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44">
-        <v>13.877347</v>
+        <v>38.353332999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45">
-        <v>7.7513832999999996</v>
+        <v>8.8356469999999998</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46">
-        <v>8.8356469999999998</v>
+        <v>53.109546999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>13.158504000000001</v>
+        <v>8.0600450000000006</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>8.6</v>
+        <v>4.7407937000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>41.393265</v>
+        <v>8.7205670000000008</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10707,8 +10814,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E50">
-    <sortCondition ref="D1:D50"/>
+  <sortState ref="A1:E53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10716,15 +10823,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11111,7 +11220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -11119,12 +11228,1443 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D70">
+        <v>17</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D74">
+        <v>21</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D75">
+        <v>22</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D81">
+        <v>28</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D82">
+        <v>29</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D84">
+        <v>31</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D85">
+        <v>32</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D86">
+        <v>33</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D87">
+        <v>34</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D89">
+        <v>36</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D90">
+        <v>37</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D91">
+        <v>38</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D92">
+        <v>39</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D94">
+        <v>41</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D95">
+        <v>42</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D96">
+        <v>43</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D97">
+        <v>44</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D98">
+        <v>45</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D99">
+        <v>46</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D100">
+        <v>47</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D102">
+        <v>49</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D103">
+        <v>50</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D104">
+        <v>51</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D105">
+        <v>52</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D106">
+        <v>53</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D107">
+        <v>54</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D108">
+        <v>55</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D109">
+        <v>56</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D110">
+        <v>57</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D111">
+        <v>58</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D112">
+        <v>59</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D113">
+        <v>60</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D114">
+        <v>61</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D115">
+        <v>62</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D116">
+        <v>63</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D117">
+        <v>64</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D118">
+        <v>65</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D119">
+        <v>66</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D120">
+        <v>67</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D121">
+        <v>68</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D122">
+        <v>69</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D123">
+        <v>70</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D124">
+        <v>71</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D125">
+        <v>72</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D126">
+        <v>73</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D127">
+        <v>74</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D128">
+        <v>75</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D129">
+        <v>76</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D130">
+        <v>77</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D131">
+        <v>78</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D132">
+        <v>79</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D133">
+        <v>80</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D134">
+        <v>81</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D135">
+        <v>82</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D137">
+        <v>84</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D138">
+        <v>85</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D139">
+        <v>86</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D140">
+        <v>87</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D141">
+        <v>88</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D142">
+        <v>89</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D143">
+        <v>90</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D144">
+        <v>91</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D145">
+        <v>92</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D146">
+        <v>93</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D147">
+        <v>94</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D148">
+        <v>95</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D149">
+        <v>96</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D150">
+        <v>97</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D151">
+        <v>98</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D152">
+        <v>99</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6">
+      <c r="D154">
+        <v>101</v>
+      </c>
+      <c r="E154" t="s">
+        <v>964</v>
+      </c>
+      <c r="F154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="D155">
+        <v>102</v>
+      </c>
+      <c r="E155" t="s">
+        <v>965</v>
+      </c>
+      <c r="F155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6">
+      <c r="D156">
+        <v>103</v>
+      </c>
+      <c r="E156" t="s">
+        <v>966</v>
+      </c>
+      <c r="F156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="D157">
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>967</v>
+      </c>
+      <c r="F157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6">
+      <c r="D158">
+        <v>105</v>
+      </c>
+      <c r="E158" t="s">
+        <v>968</v>
+      </c>
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6">
+      <c r="D159">
+        <v>106</v>
+      </c>
+      <c r="E159" t="s">
+        <v>969</v>
+      </c>
+      <c r="F159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="D160">
+        <v>107</v>
+      </c>
+      <c r="E160" t="s">
+        <v>970</v>
+      </c>
+      <c r="F160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6">
+      <c r="D161">
+        <v>108</v>
+      </c>
+      <c r="E161" t="s">
+        <v>971</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6">
+      <c r="D162">
+        <v>109</v>
+      </c>
+      <c r="E162" t="s">
+        <v>972</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6">
+      <c r="D163">
+        <v>110</v>
+      </c>
+      <c r="E163" t="s">
+        <v>973</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6">
+      <c r="D164">
+        <v>111</v>
+      </c>
+      <c r="E164" t="s">
+        <v>974</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6">
+      <c r="D165">
+        <v>112</v>
+      </c>
+      <c r="E165" t="s">
+        <v>975</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6">
+      <c r="D166">
+        <v>113</v>
+      </c>
+      <c r="E166" t="s">
+        <v>976</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6">
+      <c r="D167">
+        <v>114</v>
+      </c>
+      <c r="E167" t="s">
+        <v>977</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6">
+      <c r="D168">
+        <v>115</v>
+      </c>
+      <c r="E168" t="s">
+        <v>978</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6">
+      <c r="D169">
+        <v>116</v>
+      </c>
+      <c r="E169" t="s">
+        <v>979</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6">
+      <c r="D170">
+        <v>117</v>
+      </c>
+      <c r="E170" t="s">
+        <v>980</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6">
+      <c r="D171">
+        <v>118</v>
+      </c>
+      <c r="E171" t="s">
+        <v>981</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6">
+      <c r="D172">
+        <v>119</v>
+      </c>
+      <c r="E172" t="s">
+        <v>982</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6">
+      <c r="D173">
+        <v>120</v>
+      </c>
+      <c r="E173" t="s">
+        <v>983</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6">
+      <c r="D174">
+        <v>121</v>
+      </c>
+      <c r="E174" t="s">
+        <v>984</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6">
+      <c r="D175">
+        <v>122</v>
+      </c>
+      <c r="E175" t="s">
+        <v>985</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6">
+      <c r="D176">
+        <v>123</v>
+      </c>
+      <c r="E176" t="s">
+        <v>986</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6">
+      <c r="D177">
+        <v>124</v>
+      </c>
+      <c r="E177" t="s">
+        <v>987</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6">
+      <c r="D178">
+        <v>125</v>
+      </c>
+      <c r="E178" t="s">
+        <v>988</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6">
+      <c r="D179">
+        <v>126</v>
+      </c>
+      <c r="E179" t="s">
+        <v>989</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6">
+      <c r="D180">
+        <v>127</v>
+      </c>
+      <c r="E180" t="s">
+        <v>990</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6">
+      <c r="D181">
+        <v>128</v>
+      </c>
+      <c r="E181" t="s">
+        <v>991</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6">
+      <c r="D182">
+        <v>129</v>
+      </c>
+      <c r="E182" t="s">
+        <v>992</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6">
+      <c r="D183">
+        <v>130</v>
+      </c>
+      <c r="E183" t="s">
+        <v>993</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
